--- a/medicine/Enfance/Véronique_Massenot/Véronique_Massenot.xlsx
+++ b/medicine/Enfance/Véronique_Massenot/Véronique_Massenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Massenot</t>
+          <t>Véronique_Massenot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Véronique Massenot (née en 1970) est une autrice française de littérature jeunesse (principalement). Reconnue pour ses textes, il lui arrive aussi d'illustrer ceux des autres. Elle pratique également l'art postal et le carnet de voyage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Massenot</t>
+          <t>Véronique_Massenot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,52 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Romans
 Lettres à une disparue, Hachette, Le Livre de Poche Jeunesse (1998) - Illustration de couverture Alain Millerand - 2nd du Prix Sorcières 1999 - plusieurs fois adapté au théâtre, notamment au Québec, et plus récemment en France par la compagnie L'Arbre Océan.
 Le Journal de Soliman (Un enfant dans l'Intifada) ex Soliman le pacifique (Journal d'un enfant dans l'Intifada), Hachette, Le Livre de Poche Jeunesse (2003) - Prix du Roman du Ministère de la Jeunesse en 2002.
 La Lettre mystérieuse, Bayard Jeunesse - collection J'Aime Lire (2009) - Illustrations d'Aurélie Guillerey.
 Carnet de voyage/reportage
-Salaam Palestine ! Carnet de Voyage en Terre d'Humanité, La Boîte à Bulles (2013) - avec Marc Abel (photographe) et Bruno Pilorget (dessinateur) - Grand Prix (Michelin) du Festival, Prix du Club de la Presse et Coup de Cœur d'MSF (Médecins Sans Frontières) au Rendez-Vous du Carnet de Voyage de Clermont-Ferrand 2013.
-Albums
-Devinette, Les Éditions du Ricochet (2002) - textes et illustrations.
+Salaam Palestine ! Carnet de Voyage en Terre d'Humanité, La Boîte à Bulles (2013) - avec Marc Abel (photographe) et Bruno Pilorget (dessinateur) - Grand Prix (Michelin) du Festival, Prix du Club de la Presse et Coup de Cœur d'MSF (Médecins Sans Frontières) au Rendez-Vous du Carnet de Voyage de Clermont-Ferrand 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Véronique_Massenot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Massenot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Devinette, Les Éditions du Ricochet (2002) - textes et illustrations.
 L'Ogre de Silensonge, illustré par Eva Offredo, Éditions Gautier-Languereau (2004)
 Marabout et bout de sorcière, illustré par Muriel Kerba, Éditions Gautier-Languereau (2004 et 2007)
 Mon petit baluchon ... tout petit baluchon, illustré par Marianne Barcilon, Les Éditions du Ricochet (2006)
@@ -560,22 +608,124 @@
 Hanuman Super Singe, illustré par Fabrice Leoszewski, Éditions de l'Élan Vert (2021)
 Des Pinceaux pour Frida, illustré par Élise Mansot, Éditions de l'Élan Vert (2021)
 Binti , la bavarde , illustration sébastien Chebret , Elan vert , 2021
-Coco , Padoum et Chapati , A pas de loups , 2022
-Traductions et réécritures
-Brille encore, Soleil d'Or !, de Zhenyuan Guo (Chine) et illustré par Chengliang Zhu, HongFei Cultures (2019)
+Coco , Padoum et Chapati , A pas de loups , 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_Massenot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Massenot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions et réécritures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brille encore, Soleil d'Or !, de Zhenyuan Guo (Chine) et illustré par Chengliang Zhu, HongFei Cultures (2019)
 Croc Croc la Carotte !, de Fang Yiqun (Chine) et illustré par Clémence Pollet, HongFei Culturess (2019)
 La Petite Fille qui cueillait des Histoires, de Soojung Myung (Corée), Éditions de l'Élan Vert (2021)
-FEMMES et nos pensées au fil du temps, de Paulina Silva (Espagne), Éditions La Boîte à Bulles (2020)
-Contributions diverses
-« Patchwork » (nouvelle adultes) in 13, quai de la Pécheresse (roman collectif), Les Éditions du Ricochet (1999)
+FEMMES et nos pensées au fil du temps, de Paulina Silva (Espagne), Éditions La Boîte à Bulles (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_Massenot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Massenot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contributions diverses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Patchwork » (nouvelle adultes) in 13, quai de la Pécheresse (roman collectif), Les Éditions du Ricochet (1999)
 « Mon livre, c’est tous les livres » (témoignage) in Un amour d’enfance (recueil collectif sur la lecture), Bayard (2007)
 « Le cri de Gaza » (illustration) in Gaza, un pavé dans la mer (collectif), La boîte à Bulles (2009)
 « L'Enfant à la Couronne » (illustrations) écrit par Geneviève Huriet in Quand les baobabs chatouillent les nuages, Éditions Destination 2055 (2010)
 De Rouge et d'Encre (illustrations) recueil de poèmes écrits par Joëlle Brière, Éditions L'Atelier du Noyer (2019)
 Ouvrages pédagogiques
-Le Lunlunoscope, album et cahier d'activités, illustrés par Alain Roman, Les Éditions du Ricochet (2005)
-Textes parus dans la presse
-Radio-Jacotte, Histoires pour les Petits, Milan (2003)
+Le Lunlunoscope, album et cahier d'activités, illustrés par Alain Roman, Les Éditions du Ricochet (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_Massenot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Massenot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Textes parus dans la presse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Radio-Jacotte, Histoires pour les Petits, Milan (2003)
 Tempête à Croc-en-Noise, Histoires pour les Petits, Milan (2003)
 Une pomme pour deux, Les premières Histoires de Popi, Bayard (2004) - repris dans Enfant Magazine (2007)
 La nuit de petit fantôme, Histoires pour les Petits, Milan (2004) - avec version sonore sur CD
